--- a/Documentacion/Tabla de Sitios y Clientes.xlsx
+++ b/Documentacion/Tabla de Sitios y Clientes.xlsx
@@ -8898,8 +8898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>508</v>
+        <v>1006</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
